--- a/biology/Médecine/Faculté_de_médecine_tibétaine_du_Tibet/Faculté_de_médecine_tibétaine_du_Tibet.xlsx
+++ b/biology/Médecine/Faculté_de_médecine_tibétaine_du_Tibet/Faculté_de_médecine_tibétaine_du_Tibet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_tib%C3%A9taine_du_Tibet</t>
+          <t>Faculté_de_médecine_tibétaine_du_Tibet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Faculté de médecine tibétaine du Tibet (tibétain : བོད་ལྗོངས་བོད་ལུགས་གསོ་རིག་སློབ་ཆེན།, Wylie : bod ljongs bod lugs gso rig slob chen, THL : bö jong bö luk so rik lob chen, chinois : 西藏藏医学院 ; pinyin : xīzàng zàngyī yīxuéyuàn) est un établissement d'enseignement de la médecine traditionnelle tibétaine situé à Lhassa (région autonome du Tibet, République populaire de Chine). Fondée en septembre 1989, elle releva de l'université du Tibet jusqu'en 1993 où elle en fut séparée[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Faculté de médecine tibétaine du Tibet (tibétain : བོད་ལྗོངས་བོད་ལུགས་གསོ་རིག་སློབ་ཆེན།, Wylie : bod ljongs bod lugs gso rig slob chen, THL : bö jong bö luk so rik lob chen, chinois : 西藏藏医学院 ; pinyin : xīzàng zàngyī yīxuéyuàn) est un établissement d'enseignement de la médecine traditionnelle tibétaine situé à Lhassa (région autonome du Tibet, République populaire de Chine). Fondée en septembre 1989, elle releva de l'université du Tibet jusqu'en 1993 où elle en fut séparée.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_tib%C3%A9taine_du_Tibet</t>
+          <t>Faculté_de_médecine_tibétaine_du_Tibet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Cursus universitaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle accueille 300 étudiants. Les études durent sept ans. les quatre premières années sont consacrées à l'étude des textes médicaux et à la clinique. Les trois années restantes sont vouées à la thérapeutique. La préparation des médicaments fait partie du cursus.
 </t>
